--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,30 +8,41 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>expected_output</t>
-  </si>
-  <si>
-    <t>"10:56:20 AM"</t>
-  </si>
-  <si>
-    <t>"3:30 PM"</t>
-  </si>
-  <si>
-    <t>"1:00 AM"</t>
-  </si>
-  <si>
-    <t>"7:05 AM"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>is_diabetic</t>
+  </si>
+  <si>
+    <t>spo2</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>heart rate</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -47,10 +58,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -69,36 +82,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,59 +383,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="1">
-        <v>105620</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>112</v>
+      </c>
+      <c r="F2">
+        <v>0.75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="1">
-        <v>1530</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="3">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>112</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>